--- a/Hazelcast_Notes.xlsx
+++ b/Hazelcast_Notes.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Hazelcast" sheetId="2" r:id="rId2"/>
     <sheet name="Imgs" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -388,23 +388,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,15 +796,15 @@
       <c r="F2" s="12"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="2:7" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="18"/>
       <c r="F3"/>
       <c r="G3" s="15"/>
     </row>
@@ -869,7 +869,7 @@
     <row r="10" spans="2:7" ht="305.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="16" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="6"/>
@@ -954,8 +954,8 @@
   <sheetData>
     <row r="1" spans="4:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="4:5" ht="370.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Hazelcast_Notes.xlsx
+++ b/Hazelcast_Notes.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7560" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Terms" sheetId="1" r:id="rId1"/>
     <sheet name="Hazelcast" sheetId="2" r:id="rId2"/>
-    <sheet name="Imgs" sheetId="3" r:id="rId3"/>
+    <sheet name="Hazelcast Internal" sheetId="4" r:id="rId3"/>
+    <sheet name="Imgs" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Design Goal</t>
   </si>
@@ -29,29 +30,10 @@
     <t>Hazelcast Features</t>
   </si>
   <si>
-    <t>-- Cluster of JVM, contribute to memory
--- Client API work on Maps
--- Query SQL like strings
--- Faster Reads using cache
--- Faster Write</t>
-  </si>
-  <si>
     <t>Benefits</t>
   </si>
   <si>
-    <t>-- solves slow Database prob
--- Faster query execution</t>
-  </si>
-  <si>
     <t>Hazelcast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-- In memory data grid; 
--- Not Persisted, distributed stored data;
--- Distributed Computing (Multicore CPU)
--- noSQL; NOT a RDBMS
--- 
-</t>
   </si>
   <si>
     <t xml:space="preserve">For example if you want to have a cluster with two members: 127.0.0.1:5701 and 192.168.1.7:5704
@@ -86,12 +68,100 @@
 Under &lt;join&gt;&lt;tcp-ip&gt;, the &lt;interface&gt; are the ip or domain names of the expected members in the cluster.
 You can include the port in both hostname and ip.</t>
   </si>
+  <si>
+    <t>-- Supports auto-discovery of nodes 
+-- intelligent synchronization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Cluster of JVM, contribute to memory
+-- Client API work on Maps
+-- Query SQL like strings
+</t>
+  </si>
+  <si>
+    <t>-- Faster Reads using cache
+-- Faster Write
+-- solves slow Database prob
+-- Faster query execution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Distributed Caching
+-- In memory data grid; 
+-- Not Persisted
+-- noSQL; NOT a RDBMS
+</t>
+  </si>
+  <si>
+    <t>Race Situation Handling</t>
+  </si>
+  <si>
+    <t>Hazelcast adds distributed support to existing java API, and issues Wrapper APIs.</t>
+  </si>
+  <si>
+    <t>api</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * The Hazelcast IList is not a partitioned data-structure. So all the content of the IList is stored in a single machine (and
+ * in the backup). So the IList will not scale by adding more members in the cluster.</t>
+  </si>
+  <si>
+    <t>maps may be integrated with a database using MapStore</t>
+  </si>
+  <si>
+    <t>can store multiple values under a single key</t>
+  </si>
+  <si>
+    <t>com.hazelcast.core.MultiMap</t>
+  </si>
+  <si>
+    <t>com.hazelcast.core.IMap</t>
+  </si>
+  <si>
+    <t>com.hazelcast.core.IList</t>
+  </si>
+  <si>
+    <t>-- Data distribution in a clustered environment
+-- Distributed Data Structure
+-- Distributed stored data;
+-- Distributed Computing (Multicore CPU)
+-- Distributed Query</t>
+  </si>
+  <si>
+    <t>Distributed Data Structure</t>
+  </si>
+  <si>
+    <t>Distributed Compute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* EntryProcessor :  it takes care on Locks,Concurrency;
+-- EntryProcessor is sent to each cluster member, to manage locks, concurrency in distributed env.
+</t>
+  </si>
+  <si>
+    <t>com.hazelcast.core.IAtomicLong
+com.hazelcast.core.IAtomicReference
+com.hazelcast.core.ICountDownLatch
+com.hazelcast.core.Ilock
+com.hazelcast.core.IMap 
+com.hazelcast.core.IQueue 
+IExecutorService</t>
+  </si>
+  <si>
+    <t xml:space="preserve">java.util.concurrent.atomic.AtomicLong
+java.util.concurrent.atomic.AtomicReference
+java.util.concurrent.CountDownLatch
+java.util.concurrent.locks.Lock
+java.util.concurrent.ConcurrentMap, java.util.Map
+java.util.concurrent.BlockingQueue
+java.util.concurrent.ExecutorService
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +175,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0D2A35"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -341,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -385,15 +461,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -405,6 +487,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,7 +876,7 @@
     <col min="2" max="2" width="5.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.140625" style="1" customWidth="1"/>
     <col min="6" max="7" width="57.85546875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -799,14 +893,14 @@
     <row r="3" spans="2:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3"/>
-      <c r="G3" s="15"/>
+        <v>3</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
@@ -824,19 +918,23 @@
         <v>1</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="G5" s="7"/>
     </row>
-    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="13"/>
@@ -869,14 +967,14 @@
     <row r="10" spans="2:7" ht="305.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
-      <c r="D10" s="16" t="s">
-        <v>8</v>
+      <c r="D10" s="15" t="s">
+        <v>5</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="20"/>
+      <c r="F10" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
@@ -937,6 +1035,144 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="48.5703125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="63.42578125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="64.28515625" style="25" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+    </row>
+    <row r="5" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="B7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="25"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="25"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="25"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="25"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="25"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="25"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="25"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="25"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="25"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="25"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="25"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="25"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="25"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="25"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="25"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="25"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="25"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:E2"/>
   <sheetViews>
@@ -954,8 +1190,8 @@
   <sheetData>
     <row r="1" spans="4:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="4:5" ht="370.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Hazelcast_Notes.xlsx
+++ b/Hazelcast_Notes.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7560" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="7560" tabRatio="800" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Terms" sheetId="1" r:id="rId1"/>
     <sheet name="Hazelcast" sheetId="2" r:id="rId2"/>
-    <sheet name="Hazelcast Internal" sheetId="4" r:id="rId3"/>
-    <sheet name="Imgs" sheetId="3" r:id="rId4"/>
+    <sheet name="Code Exampls" sheetId="5" r:id="rId3"/>
+    <sheet name="Hazelcast Internal" sheetId="4" r:id="rId4"/>
+    <sheet name="Imgs" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Design Goal</t>
   </si>
@@ -69,16 +70,6 @@
 You can include the port in both hostname and ip.</t>
   </si>
   <si>
-    <t>-- Supports auto-discovery of nodes 
--- intelligent synchronization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-- Cluster of JVM, contribute to memory
--- Client API work on Maps
--- Query SQL like strings
-</t>
-  </si>
-  <si>
     <t>-- Faster Reads using cache
 -- Faster Write
 -- solves slow Database prob
@@ -125,9 +116,6 @@
 -- Distributed stored data;
 -- Distributed Computing (Multicore CPU)
 -- Distributed Query</t>
-  </si>
-  <si>
-    <t>Distributed Data Structure</t>
   </si>
   <si>
     <t>Distributed Compute</t>
@@ -156,12 +144,488 @@
 java.util.concurrent.ExecutorService
 </t>
   </si>
+  <si>
+    <t>Distributed Query</t>
+  </si>
+  <si>
+    <t>R aggregate(Aggregator, R&gt; aggregator);</t>
+  </si>
+  <si>
+    <t>-- Aggregation functionality run on Query infrastructure. Preferred results instead of get data and apply on distributed; 
+sends query to distributed; consolidate finally;
+-- ContinuousQueryCache caches query for fast retrieval
+-- Listener with Predicate : Listen to Map entry any changes happen to it.</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Members (nodes) automatically join together to form a cluster. </t>
+  </si>
+  <si>
+    <t>HazelcastInstance hzInstance = Hazelcast.newHazelcastInstance();</t>
+  </si>
+  <si>
+    <t>Create Distributed Map</t>
+  </si>
+  <si>
+    <t>Map&lt;Long, String&gt; map = hazelcastInstance.getMap("data");
+IdGenerator idGenerator = hazelcastInstance.getIdGenerator("newid");
+for (int i = 0; i &lt; 10; i++) {
+    map.put(idGenerator.newId(), "message" + 1);
+}</t>
+  </si>
+  <si>
+    <t>IdGenerator</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ids that are unique across application instances in a cluster.</t>
+  </si>
+  <si>
+    <t>IdGenerator idGenerator = hazelcastInstance.getIdGenerator("newid");
+for (int i = 0; i &lt; 10; i++) {
+    map.put(idGenerator.newId(), "message" + 1); }</t>
+  </si>
+  <si>
+    <t>Config Hazc</t>
+  </si>
+  <si>
+    <t>While start up look for configuration if following order</t>
+  </si>
+  <si>
+    <t>1. hazelcast.config
+2. hazelcast.xml working directory
+3. hazelcast.xml classpath
+4. hazelcast-default.xml @ hazelcast.jar</t>
+  </si>
+  <si>
+    <t>Multicast</t>
+  </si>
+  <si>
+    <t>discover other members and form a cluster</t>
+  </si>
+  <si>
+    <t>TCP/IP</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>Multicast
+-- discover other members and form a cluster</t>
+  </si>
+  <si>
+    <t>TCP/IP
+--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Multicast
+-- TCP/IP - config defines it
+-- </t>
+  </si>
+  <si>
+    <t>-- Dynamic HTTP session clustering
+-- Dynamic clustering
+-- Dynamic scaling to hundreds of servers
+-- Dynamic partitioning with backups
+-- Dynamic fail-over</t>
+  </si>
+  <si>
+    <t>Distributed DataStructure</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-- Distributed implementations of java.util.{Queue, Set, List, Map}
+-- Distributed implementation of java.util.concurrent.ExecutorService
+-- Distributed implementation of java.util.concurrency.locks.Lock
+-- Distributed Topic for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>publish/subscribe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> messaging
+-- Distributed </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>listeners and events</t>
+    </r>
+  </si>
+  <si>
+    <t>-- Cluster of JVM, contribute to memory
+-- Client API work on Maps
+-- Query SQL like strings
+'-- Supports auto-discovery of nodes 
+-- intelligent synchronization</t>
+  </si>
+  <si>
+    <t>Every node in the cluster has equal rights and responsibilities; So o single point of failure</t>
+  </si>
+  <si>
+    <t>InstanceListener</t>
+  </si>
+  <si>
+    <t>import java.util.Collection;
+import com.hazelcast.core.Hazelcast;
+import com.hazelcast.core.Instance;
+import com.hazelcast.core.InstanceEvent;
+import com.hazelcast.core.InstanceListener;
+public class Sample implements InstanceListener {
+    public static void main(String[] args) {
+        Sample sample = new Sample();
+        Hazelcast.addInstanceListener(sample);
+        Collection&lt;Instance&gt; instances = Hazelcast.getInstances();
+        for (Instance instance : instances) {
+           System.out.println(instance.getInstanceType() + "," + instance.getId());
+        }
+    }
+    public void instanceCreated(InstanceEvent event) {
+       Instance instance = event.getInstance();
+       System.out.println("Created " + instance.getInstanceType() + "," + instance.getId());
+    }
+    public void instanceDestroyed(InstanceEvent event) {
+        Instance instance = event.getInstance();
+        System.out.println("Destroyed " + instance.getInstanceType() + "," + instance.getId());
+    }
+}</t>
+  </si>
+  <si>
+    <t>&lt;hazelcast&gt;
+    ...
+    &lt;queue name="tasks"&gt;
+        &lt;max-size-per-jvm&gt;10000&lt;/max-size-per-jvm&gt;
+        &lt;time-to-live-seconds&gt;0&lt;/time-to-live-seconds&gt;
+    &lt;/queue&gt;
+&lt;/hazelcast&gt;</t>
+  </si>
+  <si>
+    <t>If you have 10 million tasks in your "tasks" queue and you are running that code over 10 JVMs (or servers), then each server carries 1 million task objects (plus backups).</t>
+  </si>
+  <si>
+    <t>Distributed Topic</t>
+  </si>
+  <si>
+    <t>pub/sub are cluster-wide.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Sample </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>implements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> MessageListener&lt;MyEvent&gt; {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> main(String[] args) {
+        Sample sample = new Sample();
+        ITopic topic = Hazelcast.getTopic ("default");
+        topic.addMessageListener(sample);
+        topic.publish (new MyEvent());  }
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> onMessage(MyEvent myEvent) {
+        System.out.println("Message received = " + myEvent.toString());
+        if (myEvent.isHeavyweight()) {
+            messageExecutor.execute(new Runnable() {
+                </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> void run() {
+                    doHeavyweightStuff(myEvent);   }
+            }); } }
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>final</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Executor messageExecutor = Executors.newSingleThreadExecutor();
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>ConcurrentMap&lt;String, Customer&gt; map = Hazelcast.getMap("customers");
+  Customer customer = map.get(id);
+  if (customer == null) {
+      customer = new Customer (id);
+      customer = map.putIfAbsent(id, customer); }
+map.replace(customer.getId(), customer);
+map.remove(customer.getId(), customer) );</t>
+  </si>
+  <si>
+    <t>Backup</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-- Backup operations are Synchronous. 
+-- a map.put(key,value) call returns, means entry is updated on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>both owner and backup JVMs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.
+-- a map.get(key) possible to read from owner or backup. (allow read from backup increase perf)
+-- Each JVM holds some portion of the data; can specify # of backup copies are wanted.
+-- Data on a JVM will be synchronously copied onto other JVM(s)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;map name="default"&gt;
+        &lt;backup-count&gt;1&lt;/backup-count&gt;
+        &lt;read-backup-data&gt;true&lt;/read-backup-data&gt;
+        ...
+    &lt;/map&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No single cluster master </t>
+  </si>
+  <si>
+    <t>Eviction</t>
+  </si>
+  <si>
+    <t>-- LRU (Least Recently Used) / LFU (Least Frequently Used)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +644,38 @@
       <color rgb="FF0D2A35"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFC00000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0000CC"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -417,66 +913,88 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -488,17 +1006,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,6 +1024,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -852,182 +1375,337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B5:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G16"/>
+  <dimension ref="B1:G27"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.140625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="57.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83" style="14" customWidth="1"/>
+    <col min="5" max="5" width="65.5703125" style="14" customWidth="1"/>
+    <col min="6" max="7" width="57.85546875" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="1" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="4"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="2:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="28"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="19"/>
+      <c r="C4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="2:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="19"/>
+      <c r="C5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="19"/>
+      <c r="C6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="2:7" s="1" customFormat="1" ht="96" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="2:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="16" t="s">
+      <c r="E7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" s="1" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="2:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="2:7" ht="305.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="15" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="2:7" s="1" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="1" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="34"/>
+      <c r="C10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="19"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="19"/>
+      <c r="C12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="19"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+    </row>
+    <row r="14" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="19"/>
+      <c r="C14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
+    </row>
+    <row r="15" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="19"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="19"/>
+      <c r="C16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="19"/>
+      <c r="C17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="19"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
+    </row>
+    <row r="19" spans="2:7" ht="48" x14ac:dyDescent="0.25">
+      <c r="B19" s="19"/>
+      <c r="C19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" spans="2:7" ht="12" x14ac:dyDescent="0.25">
+      <c r="B20" s="19"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" spans="2:7" ht="305.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="19"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="21" t="s">
+      <c r="E21" s="12"/>
+      <c r="F21" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="22"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="10"/>
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="19"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="19"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="19"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="19"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="19"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21"/>
+    </row>
+    <row r="27" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="23"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1036,135 +1714,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F24"/>
+  <dimension ref="A5:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="5.85546875" style="24" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="48.5703125" style="24" customWidth="1"/>
-    <col min="5" max="5" width="63.42578125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="64.28515625" style="25" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="5.7109375" style="33" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.85546875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="72.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="72.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="60.42578125" style="32" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="32"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C2" s="24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-    </row>
-    <row r="5" spans="2:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="B5" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="25"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="25"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="25"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="25"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="25"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="25"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="25"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="25"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="25"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="25"/>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="25"/>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="25"/>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="25"/>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="25"/>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="25"/>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="25"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="25"/>
+    <row r="5" spans="2:5" ht="96" x14ac:dyDescent="0.25">
+      <c r="B5" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="84" x14ac:dyDescent="0.25">
+      <c r="C7" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1173,6 +1765,171 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="117.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="63.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="64.28515625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="2:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="35"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="2:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E4:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:E2"/>
   <sheetViews>
@@ -1190,8 +1947,8 @@
   <sheetData>
     <row r="1" spans="4:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="4:5" ht="370.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
